--- a/specs/dqa_check_descriptions_v58.xlsx
+++ b/specs/dqa_check_descriptions_v58.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wieandk/Desktop/data_quality/pedsnet_ndq/specs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AFA2DA27-5B34-B74F-A754-76C9C215C5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8165D0EC-EDAB-5347-B843-48882FB640BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="1860" windowWidth="26360" windowHeight="15680" xr2:uid="{6B179D29-22B0-6541-83F0-F3F412A3B8F0}"/>
+    <workbookView xWindow="4440" yWindow="1860" windowWidth="25800" windowHeight="15680" xr2:uid="{6B179D29-22B0-6541-83F0-F3F412A3B8F0}"/>
   </bookViews>
   <sheets>
     <sheet name="dqa_check_descriptions_v58" sheetId="1" r:id="rId1"/>
@@ -958,378 +958,201 @@
     <t>dcon_flu_pos_lab_flu_dx</t>
   </si>
   <si>
-    <t>Person Facts/Records</t>
-  </si>
-  <si>
-    <t>pf_pr_all</t>
-  </si>
-  <si>
     <t>counts of all visits with and without an associated procedure</t>
   </si>
   <si>
-    <t>pf</t>
-  </si>
-  <si>
     <t>Completeness</t>
   </si>
   <si>
-    <t>pf_co_all</t>
-  </si>
-  <si>
     <t>counts of all visits with and without an associated condition</t>
   </si>
   <si>
-    <t>pf_dr_all</t>
-  </si>
-  <si>
     <t>counts of all visits with and without an associated drug</t>
   </si>
   <si>
-    <t>pf_prdr_all</t>
-  </si>
-  <si>
     <t>Procedures and Drugs</t>
   </si>
   <si>
     <t>counts of all visits with and without an associated procedure AND an associated drug</t>
   </si>
   <si>
-    <t>pf_ml_all</t>
-  </si>
-  <si>
     <t>counts of all visits with and without an associated lab value</t>
   </si>
   <si>
-    <t>pf_prdrml_all</t>
-  </si>
-  <si>
     <t>Procedures, Drugs, and Labs</t>
   </si>
   <si>
     <t>counts of all visits with and without an associated procedure AND an associated drug AND an associated lab value</t>
   </si>
   <si>
-    <t>pf_vp_all</t>
-  </si>
-  <si>
     <t>Visit Payer</t>
   </si>
   <si>
     <t>counts of all visits with and without an associated record in visit_payer</t>
   </si>
   <si>
-    <t>pf_im_all</t>
-  </si>
-  <si>
     <t>counts of all visits with and without an associated immunization</t>
   </si>
   <si>
-    <t>pf_ob_all</t>
-  </si>
-  <si>
     <t>counts of all visits with and without an associated observation</t>
   </si>
   <si>
-    <t>pf_pr_inpatient</t>
-  </si>
-  <si>
     <t>counts of inpatient visits (visit_concept_id = 9201 or 2000000048) with and without an associated procedure</t>
   </si>
   <si>
-    <t>pf_co_inpatient</t>
-  </si>
-  <si>
     <t>counts of inpatient visits (visit_concept_id = 9201 or 2000000048) with and without an associated condition</t>
   </si>
   <si>
-    <t>pf_dr_inpatient</t>
-  </si>
-  <si>
     <t>counts of inpatient visits (visit_concept_id = 9201 or 2000000048) with and without an associated drug</t>
   </si>
   <si>
-    <t>pf_prdr_inpatient</t>
-  </si>
-  <si>
     <t>counts of inpatient visits (visit_concept_id = 9201 or 2000000048) with and without an associated procedure AND an associated drug</t>
   </si>
   <si>
-    <t>pf_ml_inpatient</t>
-  </si>
-  <si>
     <t>counts of inpatient visits (visit_concept_id = 9201 or 2000000048) with and without an associated lab value</t>
   </si>
   <si>
-    <t>pf_prdrml_inpatient</t>
-  </si>
-  <si>
     <t>counts of inpatient visits (visit_concept_id = 9201 or 2000000048) with and without an associated procedure AND an associated drug AND an associated lab value</t>
   </si>
   <si>
-    <t>pf_vp_inpatient</t>
-  </si>
-  <si>
     <t>counts of inpatient visits (visit_concept_id = 9201 or 2000000048) with and without an associated record in visit_payer</t>
   </si>
   <si>
-    <t>pf_im_inpatient</t>
-  </si>
-  <si>
     <t>counts of inpatient visits (visit_concept_id = 9201 or 2000000048) with and without an associated immunization</t>
   </si>
   <si>
-    <t>pf_icu_inpatient</t>
-  </si>
-  <si>
     <t>ICU</t>
   </si>
   <si>
     <t>counts of inpatient visits (visit_concept_id = 9201 or 2000000048) with and without an associated ICU transfer (service_concept_id = 2000000079, 2000000080, or 2000000078)</t>
   </si>
   <si>
-    <t>pf_ob_inpatient</t>
-  </si>
-  <si>
     <t>counts of inpatient visits (visit_concept_id = 9201 or 2000000048) with and without an associated observation</t>
   </si>
   <si>
-    <t>pf_pr_long_inpatient</t>
-  </si>
-  <si>
     <t>Long Inpatient Visits</t>
   </si>
   <si>
     <t>counts of inpatient visits (visit_concept_id = 9201 or 2000000048) longer than 2 days with and without an associated procedure</t>
   </si>
   <si>
-    <t>pf_co_long_inpatient</t>
-  </si>
-  <si>
     <t>counts of inpatient visits (visit_concept_id = 9201 or 2000000048) longer than 2 days with and without an associated condition</t>
   </si>
   <si>
-    <t>pf_dr_long_inpatient</t>
-  </si>
-  <si>
     <t>counts of inpatient visits (visit_concept_id = 9201 or 2000000048) longer than 2 days with and without an associated drug</t>
   </si>
   <si>
-    <t>pf_prdr_long_inpatient</t>
-  </si>
-  <si>
     <t>counts of inpatient visits (visit_concept_id = 9201 or 2000000048) longer than 2 days with and without an associated procedure AND an associated drug</t>
   </si>
   <si>
-    <t>pf_ml_long_inpatient</t>
-  </si>
-  <si>
     <t>counts of inpatient visits (visit_concept_id = 9201 or 2000000048) longer than 2 days with and without an associated lab value</t>
   </si>
   <si>
-    <t>pf_prdrml_long_inpatient</t>
-  </si>
-  <si>
     <t>counts of inpatient visits (visit_concept_id = 9201 or 2000000048) longer than 2 days with and without an associated procedure AND an associated drug AND an associated lab value</t>
   </si>
   <si>
-    <t>pf_vp_long_inpatient</t>
-  </si>
-  <si>
     <t>counts of inpatient visits (visit_concept_id = 9201 or 2000000048) longer than 2 days with and without an associated record in visit_payer</t>
   </si>
   <si>
-    <t>pf_im_long_inpatient</t>
-  </si>
-  <si>
     <t>counts of inpatient visits (visit_concept_id = 9201 or 2000000048) longer than 2 days with and without an associated immunization</t>
   </si>
   <si>
-    <t>pf_icu_long_inpatient</t>
-  </si>
-  <si>
     <t>counts of inpatient visits (visit_concept_id = 9201 or 2000000048) longer than 2 days with and without an associated ICU transfer (service_concept_id = 2000000079, 2000000080, or 2000000078)</t>
   </si>
   <si>
-    <t>pf_ob_long_inpatient</t>
-  </si>
-  <si>
     <t>counts of inpatient visits (visit_concept_id = 9201 or 2000000048) longer than 2 days with and without an associated observation</t>
   </si>
   <si>
-    <t>pf_pr_outpatient</t>
-  </si>
-  <si>
     <t>Outpatient Visits</t>
   </si>
   <si>
     <t>counts of outpatient visits (visit_concept_id = 9202 or 581399) with and without an associated procedure</t>
   </si>
   <si>
-    <t>pf_co_outpatient</t>
-  </si>
-  <si>
     <t>counts of outpatient visits (visit_concept_id = 9202 or 581399) with and without an associated condition</t>
   </si>
   <si>
-    <t>pf_dr_outpatient</t>
-  </si>
-  <si>
     <t>counts of outpatient visits (visit_concept_id = 9202 or 581399) with and without an associated drug</t>
   </si>
   <si>
-    <t>pf_prdr_outpatient</t>
-  </si>
-  <si>
     <t>counts of outpatient visits (visit_concept_id = 9202 or 581399) with and without an associated procedure AND an associated drug</t>
   </si>
   <si>
-    <t>pf_ml_outpatient</t>
-  </si>
-  <si>
     <t>counts of outpatient visits (visit_concept_id = 9202 or 581399) with and without an associated lab value</t>
   </si>
   <si>
-    <t>pf_prdrml_outpatient</t>
-  </si>
-  <si>
     <t>counts of outpatient visits (visit_concept_id = 9202 or 581399) with and without an associated procedure AND an associated drug AND an associated lab value</t>
   </si>
   <si>
-    <t>pf_vp_outpatient</t>
-  </si>
-  <si>
     <t>counts of outpatient visits (visit_concept_id = 9202 or 581399) with and without an associated record in visit_payer</t>
   </si>
   <si>
-    <t>pf_im_outpatient</t>
-  </si>
-  <si>
     <t>counts of outpatient visits (visit_concept_id = 9202 or 581399) with and without an associated immunization</t>
   </si>
   <si>
-    <t>pf_ob_outpatient</t>
-  </si>
-  <si>
     <t>counts of outpatient visits (visit_concept_id = 9202 or 581399) with and without an associated observation</t>
   </si>
   <si>
-    <t>pf_pr_emergency</t>
-  </si>
-  <si>
     <t>ED Visits</t>
   </si>
   <si>
     <t>counts of ED visits (visit_concept_id = 9203 or 2000000048) with and without an associated procedure</t>
   </si>
   <si>
-    <t>pf_co_emergency</t>
-  </si>
-  <si>
     <t>counts of ED visits (visit_concept_id = 9203 or 2000000048) with and without an associated condition</t>
   </si>
   <si>
-    <t>pf_dr_emergency</t>
-  </si>
-  <si>
     <t>counts of ED visits (visit_concept_id = 9203 or 2000000048) with and without an associated drug</t>
   </si>
   <si>
-    <t>pf_prdr_emergency</t>
-  </si>
-  <si>
     <t>counts of ED visits (visit_concept_id = 9203 or 2000000048) with and without an associated procedure AND an associated drug</t>
   </si>
   <si>
-    <t>pf_ml_emergency</t>
-  </si>
-  <si>
     <t>counts of ED visits (visit_concept_id = 9203 or 2000000048) with and without an associated lab value</t>
   </si>
   <si>
-    <t>pf_prdrml_emergency</t>
-  </si>
-  <si>
     <t>counts of ED visits (visit_concept_id = 9203 or 2000000048) with and without an associated procedure AND an associated drug AND an associated lab value</t>
   </si>
   <si>
-    <t>pf_vp_emergency</t>
-  </si>
-  <si>
     <t>counts of ED visits (visit_concept_id = 9203 or 2000000048) with and without an associated record in visit_payer</t>
   </si>
   <si>
-    <t>pf_im_emergency</t>
-  </si>
-  <si>
     <t>counts of ED visits (visit_concept_id = 9203 or 2000000048) with and without an associated immunization</t>
   </si>
   <si>
-    <t>pf_ob_emergency</t>
-  </si>
-  <si>
     <t>counts of ED visits (visit_concept_id = 9203 or 2000000048) with and without an associated observation</t>
   </si>
   <si>
-    <t>pf_pr_cancelled</t>
-  </si>
-  <si>
     <t>Cancelled Visits</t>
   </si>
   <si>
     <t>counts of cancelled visits (visit_source_concept_id = 2000001590) with and without an associated procedure</t>
   </si>
   <si>
-    <t>pf_co_cancelled</t>
-  </si>
-  <si>
     <t>counts of cancelled visits (visit_source_concept_id = 2000001590) with and without an associated condition</t>
   </si>
   <si>
-    <t>pf_dr_cancelled</t>
-  </si>
-  <si>
     <t>counts of cancelled visits (visit_source_concept_id = 2000001590) with and without an associated drug</t>
   </si>
   <si>
-    <t>pf_prdr_cancelled</t>
-  </si>
-  <si>
     <t>counts of cancelled visits (visit_source_concept_id = 2000001590) with and without an associated procedure AND an associated drug</t>
   </si>
   <si>
-    <t>pf_ml_cancelled</t>
-  </si>
-  <si>
     <t>counts of cancelled visits (visit_source_concept_id = 2000001590) with and without an associated lab value</t>
   </si>
   <si>
-    <t>pf_prdrml_cancelled</t>
-  </si>
-  <si>
     <t>counts of cancelled visits (visit_source_concept_id = 2000001590) with and without an associated procedure AND an associated drug AND an associated lab value</t>
   </si>
   <si>
-    <t>pf_vp_cancelled</t>
-  </si>
-  <si>
     <t>counts of cancelled visits (visit_source_concept_id = 2000001590) with and without an associated record in visit_payer</t>
   </si>
   <si>
-    <t>pf_im_cancelled</t>
-  </si>
-  <si>
     <t>counts of cancelled visits (visit_source_concept_id = 2000001590)with and without an associated immunization</t>
   </si>
   <si>
-    <t>pf_icu_cancelled</t>
-  </si>
-  <si>
     <t>counts of cancelled visits (visit_source_concept_id = 2000001590) with and without an associated ICU transfer (service_concept_id = 2000000079, 2000000080, or 2000000078)</t>
   </si>
   <si>
-    <t>pf_ob_cancelled</t>
-  </si>
-  <si>
     <t>counts of cancelled visits (visit_source_concept_id = 2000001590) with and without an associated observation</t>
   </si>
   <si>
@@ -2155,33 +1978,6 @@
     <t>counts of visits with a general practice provider or care site specialty, visits with a well-child diagnosis or procedure code, or both (codesets: general_practice_specialties, px_wellness_visit; found in the specs folder of the GitHub repository)</t>
   </si>
   <si>
-    <t>pf_pr_primary_care</t>
-  </si>
-  <si>
-    <t>pf_co_primary_care</t>
-  </si>
-  <si>
-    <t>pf_dr_primary_care</t>
-  </si>
-  <si>
-    <t>pf_prdr_primary_care</t>
-  </si>
-  <si>
-    <t>pf_ml_primary_care</t>
-  </si>
-  <si>
-    <t>pf_prdrml_primary_care</t>
-  </si>
-  <si>
-    <t>pf_vp_primary_care</t>
-  </si>
-  <si>
-    <t>pf_im_primary_care</t>
-  </si>
-  <si>
-    <t>pf_ob_primary_care</t>
-  </si>
-  <si>
     <t>Primary Care Visits</t>
   </si>
   <si>
@@ -2396,6 +2192,210 @@
   </si>
   <si>
     <t>counts of concepts in value_as_concept_id where observation_concept_id belongs to promis_physical_function that are not part of the list of concepts in promis_physical_function_values (found in the specs folder of the GitHub repository)</t>
+  </si>
+  <si>
+    <t>cfd_pr_all</t>
+  </si>
+  <si>
+    <t>cfd_co_all</t>
+  </si>
+  <si>
+    <t>cfd_dr_all</t>
+  </si>
+  <si>
+    <t>cfd_prdr_all</t>
+  </si>
+  <si>
+    <t>cfd_ml_all</t>
+  </si>
+  <si>
+    <t>cfd_prdrml_all</t>
+  </si>
+  <si>
+    <t>cfd_vp_all</t>
+  </si>
+  <si>
+    <t>cfd_im_all</t>
+  </si>
+  <si>
+    <t>cfd_ob_all</t>
+  </si>
+  <si>
+    <t>cfd_pr_inpatient</t>
+  </si>
+  <si>
+    <t>cfd_co_inpatient</t>
+  </si>
+  <si>
+    <t>cfd_dr_inpatient</t>
+  </si>
+  <si>
+    <t>cfd_prdr_inpatient</t>
+  </si>
+  <si>
+    <t>cfd_ml_inpatient</t>
+  </si>
+  <si>
+    <t>cfd_prdrml_inpatient</t>
+  </si>
+  <si>
+    <t>cfd_vp_inpatient</t>
+  </si>
+  <si>
+    <t>cfd_im_inpatient</t>
+  </si>
+  <si>
+    <t>cfd_icu_inpatient</t>
+  </si>
+  <si>
+    <t>cfd_ob_inpatient</t>
+  </si>
+  <si>
+    <t>cfd_pr_long_inpatient</t>
+  </si>
+  <si>
+    <t>cfd_co_long_inpatient</t>
+  </si>
+  <si>
+    <t>cfd_dr_long_inpatient</t>
+  </si>
+  <si>
+    <t>cfd_prdr_long_inpatient</t>
+  </si>
+  <si>
+    <t>cfd_ml_long_inpatient</t>
+  </si>
+  <si>
+    <t>cfd_prdrml_long_inpatient</t>
+  </si>
+  <si>
+    <t>cfd_vp_long_inpatient</t>
+  </si>
+  <si>
+    <t>cfd_im_long_inpatient</t>
+  </si>
+  <si>
+    <t>cfd_icu_long_inpatient</t>
+  </si>
+  <si>
+    <t>cfd_ob_long_inpatient</t>
+  </si>
+  <si>
+    <t>cfd_pr_outpatient</t>
+  </si>
+  <si>
+    <t>cfd_co_outpatient</t>
+  </si>
+  <si>
+    <t>cfd_dr_outpatient</t>
+  </si>
+  <si>
+    <t>cfd_prdr_outpatient</t>
+  </si>
+  <si>
+    <t>cfd_ml_outpatient</t>
+  </si>
+  <si>
+    <t>cfd_prdrml_outpatient</t>
+  </si>
+  <si>
+    <t>cfd_vp_outpatient</t>
+  </si>
+  <si>
+    <t>cfd_im_outpatient</t>
+  </si>
+  <si>
+    <t>cfd_ob_outpatient</t>
+  </si>
+  <si>
+    <t>cfd_pr_emergency</t>
+  </si>
+  <si>
+    <t>cfd_co_emergency</t>
+  </si>
+  <si>
+    <t>cfd_dr_emergency</t>
+  </si>
+  <si>
+    <t>cfd_prdr_emergency</t>
+  </si>
+  <si>
+    <t>cfd_ml_emergency</t>
+  </si>
+  <si>
+    <t>cfd_prdrml_emergency</t>
+  </si>
+  <si>
+    <t>cfd_vp_emergency</t>
+  </si>
+  <si>
+    <t>cfd_im_emergency</t>
+  </si>
+  <si>
+    <t>cfd_ob_emergency</t>
+  </si>
+  <si>
+    <t>cfd_pr_cancelled</t>
+  </si>
+  <si>
+    <t>cfd_co_cancelled</t>
+  </si>
+  <si>
+    <t>cfd_dr_cancelled</t>
+  </si>
+  <si>
+    <t>cfd_prdr_cancelled</t>
+  </si>
+  <si>
+    <t>cfd_ml_cancelled</t>
+  </si>
+  <si>
+    <t>cfd_prdrml_cancelled</t>
+  </si>
+  <si>
+    <t>cfd_vp_cancelled</t>
+  </si>
+  <si>
+    <t>cfd_im_cancelled</t>
+  </si>
+  <si>
+    <t>cfd_icu_cancelled</t>
+  </si>
+  <si>
+    <t>cfd_ob_cancelled</t>
+  </si>
+  <si>
+    <t>cfd_pr_primary_care</t>
+  </si>
+  <si>
+    <t>cfd_co_primary_care</t>
+  </si>
+  <si>
+    <t>cfd_dr_primary_care</t>
+  </si>
+  <si>
+    <t>cfd_prdr_primary_care</t>
+  </si>
+  <si>
+    <t>cfd_ml_primary_care</t>
+  </si>
+  <si>
+    <t>cfd_prdrml_primary_care</t>
+  </si>
+  <si>
+    <t>cfd_vp_primary_care</t>
+  </si>
+  <si>
+    <t>cfd_im_primary_care</t>
+  </si>
+  <si>
+    <t>cfd_ob_primary_care</t>
+  </si>
+  <si>
+    <t>Clinical Fact Documentation</t>
+  </si>
+  <si>
+    <t>cfd</t>
   </si>
 </sst>
 </file>
@@ -3279,8 +3279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471ACE81-CFFE-354D-841D-85FF45DF4D13}">
   <dimension ref="A1:G287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="B262" sqref="B262"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4153,10 +4153,10 @@
         <v>15</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>665</v>
+        <v>606</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>666</v>
+        <v>607</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>12</v>
@@ -4843,10 +4843,10 @@
         <v>171</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>667</v>
+        <v>608</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>687</v>
+        <v>628</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>132</v>
@@ -4866,10 +4866,10 @@
         <v>171</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>668</v>
+        <v>609</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>688</v>
+        <v>629</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>132</v>
@@ -4889,10 +4889,10 @@
         <v>171</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>669</v>
+        <v>610</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>689</v>
+        <v>630</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>132</v>
@@ -4912,10 +4912,10 @@
         <v>171</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>670</v>
+        <v>611</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>690</v>
+        <v>631</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>132</v>
@@ -4935,10 +4935,10 @@
         <v>171</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>672</v>
+        <v>613</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>691</v>
+        <v>632</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>132</v>
@@ -4958,10 +4958,10 @@
         <v>171</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>671</v>
+        <v>612</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>692</v>
+        <v>633</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>132</v>
@@ -4981,10 +4981,10 @@
         <v>171</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>673</v>
+        <v>614</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>693</v>
+        <v>634</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>132</v>
@@ -5004,10 +5004,10 @@
         <v>171</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>674</v>
+        <v>615</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>694</v>
+        <v>635</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>132</v>
@@ -5027,10 +5027,10 @@
         <v>171</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>675</v>
+        <v>616</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>695</v>
+        <v>636</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>132</v>
@@ -5050,10 +5050,10 @@
         <v>171</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>676</v>
+        <v>617</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>696</v>
+        <v>637</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>132</v>
@@ -5073,10 +5073,10 @@
         <v>171</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>677</v>
+        <v>618</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>697</v>
+        <v>638</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>132</v>
@@ -5096,10 +5096,10 @@
         <v>171</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>678</v>
+        <v>619</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>698</v>
+        <v>639</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>132</v>
@@ -5119,10 +5119,10 @@
         <v>171</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>679</v>
+        <v>620</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>699</v>
+        <v>640</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>132</v>
@@ -5142,10 +5142,10 @@
         <v>171</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>680</v>
+        <v>621</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>700</v>
+        <v>641</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>132</v>
@@ -5165,10 +5165,10 @@
         <v>171</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>681</v>
+        <v>622</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>701</v>
+        <v>642</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>132</v>
@@ -5188,10 +5188,10 @@
         <v>171</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>682</v>
+        <v>623</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>702</v>
+        <v>643</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>132</v>
@@ -5211,10 +5211,10 @@
         <v>171</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>683</v>
+        <v>624</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>703</v>
+        <v>644</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>132</v>
@@ -5228,16 +5228,16 @@
         <v>128</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>684</v>
+        <v>625</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>685</v>
+        <v>626</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>686</v>
+        <v>627</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>132</v>
@@ -5458,16 +5458,16 @@
         <v>238</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>704</v>
+        <v>645</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>705</v>
+        <v>646</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>706</v>
+        <v>647</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>241</v>
@@ -5780,16 +5780,16 @@
         <v>265</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>707</v>
+        <v>648</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>709</v>
+        <v>650</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>710</v>
+        <v>651</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>270</v>
@@ -5800,10 +5800,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B110" t="s">
-        <v>313</v>
+        <v>724</v>
       </c>
       <c r="C110" t="s">
         <v>36</v>
@@ -5812,21 +5812,21 @@
         <v>104</v>
       </c>
       <c r="E110" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F110" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G110" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B111" t="s">
-        <v>317</v>
+        <v>725</v>
       </c>
       <c r="C111" t="s">
         <v>36</v>
@@ -5835,21 +5835,21 @@
         <v>20</v>
       </c>
       <c r="E111" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F111" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G111" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B112" t="s">
-        <v>319</v>
+        <v>726</v>
       </c>
       <c r="C112" t="s">
         <v>36</v>
@@ -5858,44 +5858,44 @@
         <v>16</v>
       </c>
       <c r="E112" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F112" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G112" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B113" t="s">
-        <v>321</v>
+        <v>727</v>
       </c>
       <c r="C113" t="s">
         <v>36</v>
       </c>
       <c r="D113" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E113" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F113" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G113" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B114" t="s">
-        <v>324</v>
+        <v>728</v>
       </c>
       <c r="C114" t="s">
         <v>36</v>
@@ -5904,67 +5904,67 @@
         <v>43</v>
       </c>
       <c r="E114" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F114" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G114" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B115" t="s">
-        <v>326</v>
+        <v>729</v>
       </c>
       <c r="C115" t="s">
         <v>36</v>
       </c>
       <c r="D115" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E115" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F115" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G115" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B116" t="s">
-        <v>329</v>
+        <v>730</v>
       </c>
       <c r="C116" t="s">
         <v>36</v>
       </c>
       <c r="D116" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="E116" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F116" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G116" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B117" t="s">
-        <v>332</v>
+        <v>731</v>
       </c>
       <c r="C117" t="s">
         <v>36</v>
@@ -5973,21 +5973,21 @@
         <v>32</v>
       </c>
       <c r="E117" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F117" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G117" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B118" t="s">
-        <v>334</v>
+        <v>732</v>
       </c>
       <c r="C118" t="s">
         <v>36</v>
@@ -5996,21 +5996,21 @@
         <v>171</v>
       </c>
       <c r="E118" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F118" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G118" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B119" t="s">
-        <v>336</v>
+        <v>733</v>
       </c>
       <c r="C119" t="s">
         <v>88</v>
@@ -6019,21 +6019,21 @@
         <v>104</v>
       </c>
       <c r="E119" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F119" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G119" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B120" t="s">
-        <v>338</v>
+        <v>734</v>
       </c>
       <c r="C120" t="s">
         <v>88</v>
@@ -6042,21 +6042,21 @@
         <v>20</v>
       </c>
       <c r="E120" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="F120" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G120" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B121" t="s">
-        <v>340</v>
+        <v>735</v>
       </c>
       <c r="C121" t="s">
         <v>88</v>
@@ -6065,44 +6065,44 @@
         <v>16</v>
       </c>
       <c r="E121" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="F121" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G121" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B122" t="s">
-        <v>342</v>
+        <v>736</v>
       </c>
       <c r="C122" t="s">
         <v>88</v>
       </c>
       <c r="D122" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E122" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="F122" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G122" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B123" t="s">
-        <v>344</v>
+        <v>737</v>
       </c>
       <c r="C123" t="s">
         <v>88</v>
@@ -6111,67 +6111,67 @@
         <v>43</v>
       </c>
       <c r="E123" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F123" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G123" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B124" t="s">
-        <v>346</v>
+        <v>738</v>
       </c>
       <c r="C124" t="s">
         <v>88</v>
       </c>
       <c r="D124" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E124" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="F124" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G124" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B125" t="s">
-        <v>348</v>
+        <v>739</v>
       </c>
       <c r="C125" t="s">
         <v>88</v>
       </c>
       <c r="D125" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="E125" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="F125" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G125" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B126" t="s">
-        <v>350</v>
+        <v>740</v>
       </c>
       <c r="C126" t="s">
         <v>88</v>
@@ -6180,44 +6180,44 @@
         <v>32</v>
       </c>
       <c r="E126" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="F126" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G126" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B127" t="s">
-        <v>352</v>
+        <v>741</v>
       </c>
       <c r="C127" t="s">
         <v>88</v>
       </c>
       <c r="D127" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="E127" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="F127" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G127" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B128" t="s">
-        <v>355</v>
+        <v>742</v>
       </c>
       <c r="C128" t="s">
         <v>88</v>
@@ -6226,1125 +6226,1125 @@
         <v>171</v>
       </c>
       <c r="E128" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="F128" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G128" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B129" t="s">
-        <v>357</v>
+        <v>743</v>
       </c>
       <c r="C129" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="D129" t="s">
         <v>104</v>
       </c>
       <c r="E129" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="F129" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G129" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B130" t="s">
-        <v>360</v>
+        <v>744</v>
       </c>
       <c r="C130" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="D130" t="s">
         <v>20</v>
       </c>
       <c r="E130" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="F130" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G130" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B131" t="s">
-        <v>362</v>
+        <v>745</v>
       </c>
       <c r="C131" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="D131" t="s">
         <v>16</v>
       </c>
       <c r="E131" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="F131" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G131" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B132" t="s">
-        <v>364</v>
+        <v>746</v>
       </c>
       <c r="C132" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="D132" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E132" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="F132" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G132" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B133" t="s">
-        <v>366</v>
+        <v>747</v>
       </c>
       <c r="C133" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="D133" t="s">
         <v>43</v>
       </c>
       <c r="E133" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="F133" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G133" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B134" t="s">
-        <v>368</v>
+        <v>748</v>
       </c>
       <c r="C134" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="D134" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E134" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="F134" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G134" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B135" t="s">
-        <v>370</v>
+        <v>749</v>
       </c>
       <c r="C135" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="D135" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="E135" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="F135" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G135" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B136" t="s">
-        <v>372</v>
+        <v>750</v>
       </c>
       <c r="C136" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="D136" t="s">
         <v>32</v>
       </c>
       <c r="E136" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="F136" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G136" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B137" t="s">
-        <v>374</v>
+        <v>751</v>
       </c>
       <c r="C137" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="D137" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="E137" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="F137" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G137" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B138" t="s">
-        <v>376</v>
+        <v>752</v>
       </c>
       <c r="C138" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="D138" t="s">
         <v>171</v>
       </c>
       <c r="E138" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="F138" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G138" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B139" t="s">
-        <v>378</v>
+        <v>753</v>
       </c>
       <c r="C139" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="D139" t="s">
         <v>104</v>
       </c>
       <c r="E139" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="F139" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G139" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B140" t="s">
-        <v>381</v>
+        <v>754</v>
       </c>
       <c r="C140" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="D140" t="s">
         <v>20</v>
       </c>
       <c r="E140" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="F140" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G140" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B141" t="s">
-        <v>383</v>
+        <v>755</v>
       </c>
       <c r="C141" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="D141" t="s">
         <v>16</v>
       </c>
       <c r="E141" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="F141" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G141" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B142" t="s">
-        <v>385</v>
+        <v>756</v>
       </c>
       <c r="C142" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="D142" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E142" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="F142" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G142" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B143" t="s">
-        <v>387</v>
+        <v>757</v>
       </c>
       <c r="C143" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="D143" t="s">
         <v>43</v>
       </c>
       <c r="E143" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="F143" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G143" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B144" t="s">
-        <v>389</v>
+        <v>758</v>
       </c>
       <c r="C144" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="D144" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E144" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="F144" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G144" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B145" t="s">
-        <v>391</v>
+        <v>759</v>
       </c>
       <c r="C145" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="D145" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="E145" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="F145" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G145" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B146" t="s">
-        <v>393</v>
+        <v>760</v>
       </c>
       <c r="C146" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="D146" t="s">
         <v>32</v>
       </c>
       <c r="E146" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="F146" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G146" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B147" t="s">
-        <v>395</v>
+        <v>761</v>
       </c>
       <c r="C147" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="D147" t="s">
         <v>171</v>
       </c>
       <c r="E147" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="F147" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G147" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B148" t="s">
-        <v>397</v>
+        <v>762</v>
       </c>
       <c r="C148" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="D148" t="s">
         <v>104</v>
       </c>
       <c r="E148" t="s">
-        <v>399</v>
+        <v>358</v>
       </c>
       <c r="F148" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G148" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B149" t="s">
-        <v>400</v>
+        <v>763</v>
       </c>
       <c r="C149" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="D149" t="s">
         <v>20</v>
       </c>
       <c r="E149" t="s">
-        <v>401</v>
+        <v>359</v>
       </c>
       <c r="F149" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G149" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B150" t="s">
-        <v>402</v>
+        <v>764</v>
       </c>
       <c r="C150" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="D150" t="s">
         <v>16</v>
       </c>
       <c r="E150" t="s">
-        <v>403</v>
+        <v>360</v>
       </c>
       <c r="F150" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G150" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B151" t="s">
-        <v>404</v>
+        <v>765</v>
       </c>
       <c r="C151" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="D151" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E151" t="s">
-        <v>405</v>
+        <v>361</v>
       </c>
       <c r="F151" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G151" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B152" t="s">
-        <v>406</v>
+        <v>766</v>
       </c>
       <c r="C152" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="D152" t="s">
         <v>43</v>
       </c>
       <c r="E152" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="F152" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G152" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B153" t="s">
-        <v>408</v>
+        <v>767</v>
       </c>
       <c r="C153" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="D153" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E153" t="s">
-        <v>409</v>
+        <v>363</v>
       </c>
       <c r="F153" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G153" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B154" t="s">
-        <v>410</v>
+        <v>768</v>
       </c>
       <c r="C154" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="D154" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="E154" t="s">
-        <v>411</v>
+        <v>364</v>
       </c>
       <c r="F154" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G154" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B155" t="s">
-        <v>412</v>
+        <v>769</v>
       </c>
       <c r="C155" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="D155" t="s">
         <v>32</v>
       </c>
       <c r="E155" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="F155" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G155" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B156" t="s">
-        <v>414</v>
+        <v>770</v>
       </c>
       <c r="C156" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="D156" t="s">
         <v>171</v>
       </c>
       <c r="E156" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="F156" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G156" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B157" t="s">
-        <v>416</v>
+        <v>771</v>
       </c>
       <c r="C157" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="D157" t="s">
         <v>104</v>
       </c>
       <c r="E157" t="s">
-        <v>418</v>
+        <v>368</v>
       </c>
       <c r="F157" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G157" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B158" t="s">
-        <v>419</v>
+        <v>772</v>
       </c>
       <c r="C158" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="D158" t="s">
         <v>20</v>
       </c>
       <c r="E158" t="s">
-        <v>420</v>
+        <v>369</v>
       </c>
       <c r="F158" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G158" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B159" t="s">
-        <v>421</v>
+        <v>773</v>
       </c>
       <c r="C159" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="D159" t="s">
         <v>16</v>
       </c>
       <c r="E159" t="s">
-        <v>422</v>
+        <v>370</v>
       </c>
       <c r="F159" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G159" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B160" t="s">
-        <v>423</v>
+        <v>774</v>
       </c>
       <c r="C160" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="D160" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E160" t="s">
-        <v>424</v>
+        <v>371</v>
       </c>
       <c r="F160" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G160" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B161" t="s">
-        <v>425</v>
+        <v>775</v>
       </c>
       <c r="C161" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="D161" t="s">
         <v>43</v>
       </c>
       <c r="E161" t="s">
-        <v>426</v>
+        <v>372</v>
       </c>
       <c r="F161" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G161" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B162" t="s">
-        <v>427</v>
+        <v>776</v>
       </c>
       <c r="C162" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="D162" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E162" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="F162" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G162" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B163" t="s">
-        <v>429</v>
+        <v>777</v>
       </c>
       <c r="C163" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="D163" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="E163" t="s">
-        <v>430</v>
+        <v>374</v>
       </c>
       <c r="F163" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G163" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B164" t="s">
-        <v>431</v>
+        <v>778</v>
       </c>
       <c r="C164" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="D164" t="s">
         <v>32</v>
       </c>
       <c r="E164" t="s">
-        <v>432</v>
+        <v>375</v>
       </c>
       <c r="F164" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G164" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B165" t="s">
-        <v>433</v>
+        <v>779</v>
       </c>
       <c r="C165" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="D165" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="E165" t="s">
-        <v>434</v>
+        <v>376</v>
       </c>
       <c r="F165" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G165" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B166" t="s">
-        <v>435</v>
+        <v>780</v>
       </c>
       <c r="C166" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="D166" t="s">
         <v>171</v>
       </c>
       <c r="E166" t="s">
-        <v>436</v>
+        <v>377</v>
       </c>
       <c r="F166" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G166" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="167" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>711</v>
+        <v>781</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>720</v>
+        <v>652</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>104</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>721</v>
+        <v>653</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="168" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>712</v>
+        <v>782</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>720</v>
+        <v>652</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>722</v>
+        <v>654</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="169" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>713</v>
+        <v>783</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>720</v>
+        <v>652</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>723</v>
+        <v>655</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="170" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>714</v>
+        <v>784</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>720</v>
+        <v>652</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>724</v>
+        <v>656</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="171" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>715</v>
+        <v>785</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>720</v>
+        <v>652</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>725</v>
+        <v>657</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="172" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>716</v>
+        <v>786</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>720</v>
+        <v>652</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>726</v>
+        <v>658</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="173" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>717</v>
+        <v>787</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>720</v>
+        <v>652</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>727</v>
+        <v>659</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="174" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>718</v>
+        <v>788</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>720</v>
+        <v>652</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>728</v>
+        <v>660</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="175" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>719</v>
+        <v>789</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>720</v>
+        <v>652</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>171</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>729</v>
+        <v>661</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>315</v>
+        <v>791</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>437</v>
+        <v>378</v>
       </c>
       <c r="B176" t="s">
-        <v>438</v>
+        <v>379</v>
       </c>
       <c r="C176" t="s">
         <v>19</v>
       </c>
       <c r="D176" t="s">
-        <v>439</v>
+        <v>380</v>
       </c>
       <c r="E176" t="s">
-        <v>440</v>
+        <v>381</v>
       </c>
       <c r="F176" t="s">
-        <v>441</v>
+        <v>382</v>
       </c>
       <c r="G176" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>437</v>
+        <v>378</v>
       </c>
       <c r="B177" t="s">
-        <v>442</v>
+        <v>383</v>
       </c>
       <c r="C177" t="s">
         <v>15</v>
@@ -7353,21 +7353,21 @@
         <v>16</v>
       </c>
       <c r="E177" t="s">
-        <v>443</v>
+        <v>384</v>
       </c>
       <c r="F177" t="s">
-        <v>441</v>
+        <v>382</v>
       </c>
       <c r="G177" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>437</v>
+        <v>378</v>
       </c>
       <c r="B178" t="s">
-        <v>444</v>
+        <v>385</v>
       </c>
       <c r="C178" t="s">
         <v>15</v>
@@ -7376,21 +7376,21 @@
         <v>97</v>
       </c>
       <c r="E178" t="s">
-        <v>445</v>
+        <v>386</v>
       </c>
       <c r="F178" t="s">
-        <v>441</v>
+        <v>382</v>
       </c>
       <c r="G178" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>437</v>
+        <v>378</v>
       </c>
       <c r="B179" t="s">
-        <v>446</v>
+        <v>387</v>
       </c>
       <c r="C179" t="s">
         <v>103</v>
@@ -7399,21 +7399,21 @@
         <v>104</v>
       </c>
       <c r="E179" t="s">
-        <v>447</v>
+        <v>388</v>
       </c>
       <c r="F179" t="s">
-        <v>441</v>
+        <v>382</v>
       </c>
       <c r="G179" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>437</v>
+        <v>378</v>
       </c>
       <c r="B180" t="s">
-        <v>448</v>
+        <v>389</v>
       </c>
       <c r="C180" t="s">
         <v>39</v>
@@ -7422,21 +7422,21 @@
         <v>43</v>
       </c>
       <c r="E180" t="s">
-        <v>449</v>
+        <v>390</v>
       </c>
       <c r="F180" t="s">
-        <v>441</v>
+        <v>382</v>
       </c>
       <c r="G180" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>437</v>
+        <v>378</v>
       </c>
       <c r="B181" t="s">
-        <v>450</v>
+        <v>391</v>
       </c>
       <c r="C181" t="s">
         <v>31</v>
@@ -7445,21 +7445,21 @@
         <v>32</v>
       </c>
       <c r="E181" t="s">
-        <v>451</v>
+        <v>392</v>
       </c>
       <c r="F181" t="s">
-        <v>441</v>
+        <v>382</v>
       </c>
       <c r="G181" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B182" t="s">
-        <v>453</v>
+        <v>394</v>
       </c>
       <c r="C182" t="s">
         <v>31</v>
@@ -7468,10 +7468,10 @@
         <v>32</v>
       </c>
       <c r="E182" t="s">
-        <v>454</v>
+        <v>395</v>
       </c>
       <c r="F182" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G182" t="s">
         <v>13</v>
@@ -7479,22 +7479,22 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B183" t="s">
-        <v>456</v>
+        <v>397</v>
       </c>
       <c r="C183" t="s">
         <v>31</v>
       </c>
       <c r="D183" t="s">
-        <v>457</v>
+        <v>398</v>
       </c>
       <c r="E183" t="s">
-        <v>458</v>
+        <v>399</v>
       </c>
       <c r="F183" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G183" t="s">
         <v>13</v>
@@ -7502,22 +7502,22 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B184" t="s">
-        <v>459</v>
+        <v>400</v>
       </c>
       <c r="C184" t="s">
         <v>103</v>
       </c>
       <c r="D184" t="s">
-        <v>460</v>
+        <v>401</v>
       </c>
       <c r="E184" t="s">
-        <v>461</v>
+        <v>402</v>
       </c>
       <c r="F184" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G184" t="s">
         <v>13</v>
@@ -7525,10 +7525,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B185" t="s">
-        <v>462</v>
+        <v>403</v>
       </c>
       <c r="C185" t="s">
         <v>35</v>
@@ -7537,10 +7537,10 @@
         <v>36</v>
       </c>
       <c r="E185" t="s">
-        <v>463</v>
+        <v>404</v>
       </c>
       <c r="F185" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G185" t="s">
         <v>13</v>
@@ -7548,10 +7548,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B186" t="s">
-        <v>464</v>
+        <v>405</v>
       </c>
       <c r="C186" t="s">
         <v>35</v>
@@ -7560,10 +7560,10 @@
         <v>76</v>
       </c>
       <c r="E186" t="s">
-        <v>465</v>
+        <v>406</v>
       </c>
       <c r="F186" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G186" t="s">
         <v>13</v>
@@ -7571,10 +7571,10 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B187" t="s">
-        <v>466</v>
+        <v>407</v>
       </c>
       <c r="C187" t="s">
         <v>35</v>
@@ -7583,10 +7583,10 @@
         <v>79</v>
       </c>
       <c r="E187" t="s">
-        <v>467</v>
+        <v>408</v>
       </c>
       <c r="F187" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G187" t="s">
         <v>13</v>
@@ -7594,10 +7594,10 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B188" t="s">
-        <v>468</v>
+        <v>409</v>
       </c>
       <c r="C188" t="s">
         <v>35</v>
@@ -7606,10 +7606,10 @@
         <v>82</v>
       </c>
       <c r="E188" t="s">
-        <v>469</v>
+        <v>410</v>
       </c>
       <c r="F188" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G188" t="s">
         <v>13</v>
@@ -7617,10 +7617,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B189" t="s">
-        <v>470</v>
+        <v>411</v>
       </c>
       <c r="C189" t="s">
         <v>35</v>
@@ -7629,10 +7629,10 @@
         <v>85</v>
       </c>
       <c r="E189" t="s">
-        <v>471</v>
+        <v>412</v>
       </c>
       <c r="F189" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G189" t="s">
         <v>13</v>
@@ -7640,10 +7640,10 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B190" t="s">
-        <v>472</v>
+        <v>413</v>
       </c>
       <c r="C190" t="s">
         <v>35</v>
@@ -7652,10 +7652,10 @@
         <v>88</v>
       </c>
       <c r="E190" t="s">
-        <v>473</v>
+        <v>414</v>
       </c>
       <c r="F190" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G190" t="s">
         <v>13</v>
@@ -7663,10 +7663,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B191" t="s">
-        <v>474</v>
+        <v>415</v>
       </c>
       <c r="C191" t="s">
         <v>35</v>
@@ -7675,10 +7675,10 @@
         <v>91</v>
       </c>
       <c r="E191" t="s">
-        <v>475</v>
+        <v>416</v>
       </c>
       <c r="F191" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G191" t="s">
         <v>13</v>
@@ -7686,10 +7686,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B192" t="s">
-        <v>476</v>
+        <v>417</v>
       </c>
       <c r="C192" t="s">
         <v>35</v>
@@ -7698,10 +7698,10 @@
         <v>94</v>
       </c>
       <c r="E192" t="s">
-        <v>477</v>
+        <v>418</v>
       </c>
       <c r="F192" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G192" t="s">
         <v>13</v>
@@ -7709,22 +7709,22 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B193" t="s">
-        <v>478</v>
+        <v>419</v>
       </c>
       <c r="C193" t="s">
         <v>103</v>
       </c>
       <c r="D193" t="s">
-        <v>479</v>
+        <v>420</v>
       </c>
       <c r="E193" t="s">
-        <v>480</v>
+        <v>421</v>
       </c>
       <c r="F193" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G193" t="s">
         <v>13</v>
@@ -7732,10 +7732,10 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B194" t="s">
-        <v>481</v>
+        <v>422</v>
       </c>
       <c r="C194" t="s">
         <v>23</v>
@@ -7744,10 +7744,10 @@
         <v>67</v>
       </c>
       <c r="E194" t="s">
-        <v>482</v>
+        <v>423</v>
       </c>
       <c r="F194" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G194" t="s">
         <v>13</v>
@@ -7755,10 +7755,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B195" t="s">
-        <v>483</v>
+        <v>424</v>
       </c>
       <c r="C195" t="s">
         <v>23</v>
@@ -7767,10 +7767,10 @@
         <v>70</v>
       </c>
       <c r="E195" t="s">
-        <v>484</v>
+        <v>425</v>
       </c>
       <c r="F195" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G195" t="s">
         <v>13</v>
@@ -7778,10 +7778,10 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B196" t="s">
-        <v>485</v>
+        <v>426</v>
       </c>
       <c r="C196" t="s">
         <v>23</v>
@@ -7790,10 +7790,10 @@
         <v>73</v>
       </c>
       <c r="E196" t="s">
-        <v>486</v>
+        <v>427</v>
       </c>
       <c r="F196" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G196" t="s">
         <v>13</v>
@@ -7801,10 +7801,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B197" t="s">
-        <v>487</v>
+        <v>428</v>
       </c>
       <c r="C197" t="s">
         <v>15</v>
@@ -7813,10 +7813,10 @@
         <v>97</v>
       </c>
       <c r="E197" t="s">
-        <v>488</v>
+        <v>429</v>
       </c>
       <c r="F197" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G197" t="s">
         <v>13</v>
@@ -7824,10 +7824,10 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B198" t="s">
-        <v>489</v>
+        <v>430</v>
       </c>
       <c r="C198" t="s">
         <v>15</v>
@@ -7836,10 +7836,10 @@
         <v>100</v>
       </c>
       <c r="E198" t="s">
-        <v>490</v>
+        <v>431</v>
       </c>
       <c r="F198" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G198" t="s">
         <v>13</v>
@@ -7847,10 +7847,10 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B199" t="s">
-        <v>491</v>
+        <v>432</v>
       </c>
       <c r="C199" t="s">
         <v>19</v>
@@ -7859,10 +7859,10 @@
         <v>20</v>
       </c>
       <c r="E199" t="s">
-        <v>492</v>
+        <v>433</v>
       </c>
       <c r="F199" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G199" t="s">
         <v>13</v>
@@ -7870,10 +7870,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B200" t="s">
-        <v>493</v>
+        <v>434</v>
       </c>
       <c r="C200" t="s">
         <v>19</v>
@@ -7882,10 +7882,10 @@
         <v>46</v>
       </c>
       <c r="E200" t="s">
-        <v>494</v>
+        <v>435</v>
       </c>
       <c r="F200" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G200" t="s">
         <v>13</v>
@@ -7893,10 +7893,10 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B201" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="C201" t="s">
         <v>19</v>
@@ -7905,10 +7905,10 @@
         <v>49</v>
       </c>
       <c r="E201" t="s">
-        <v>496</v>
+        <v>437</v>
       </c>
       <c r="F201" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G201" t="s">
         <v>13</v>
@@ -7916,10 +7916,10 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B202" t="s">
-        <v>497</v>
+        <v>438</v>
       </c>
       <c r="C202" t="s">
         <v>19</v>
@@ -7928,10 +7928,10 @@
         <v>52</v>
       </c>
       <c r="E202" t="s">
-        <v>498</v>
+        <v>439</v>
       </c>
       <c r="F202" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G202" t="s">
         <v>13</v>
@@ -7939,10 +7939,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B203" t="s">
-        <v>499</v>
+        <v>440</v>
       </c>
       <c r="C203" t="s">
         <v>19</v>
@@ -7951,10 +7951,10 @@
         <v>55</v>
       </c>
       <c r="E203" t="s">
-        <v>500</v>
+        <v>441</v>
       </c>
       <c r="F203" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G203" t="s">
         <v>13</v>
@@ -7962,10 +7962,10 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B204" t="s">
-        <v>501</v>
+        <v>442</v>
       </c>
       <c r="C204" t="s">
         <v>19</v>
@@ -7974,10 +7974,10 @@
         <v>58</v>
       </c>
       <c r="E204" t="s">
-        <v>502</v>
+        <v>443</v>
       </c>
       <c r="F204" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G204" t="s">
         <v>13</v>
@@ -7985,10 +7985,10 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B205" t="s">
-        <v>503</v>
+        <v>444</v>
       </c>
       <c r="C205" t="s">
         <v>19</v>
@@ -7997,10 +7997,10 @@
         <v>61</v>
       </c>
       <c r="E205" t="s">
-        <v>504</v>
+        <v>445</v>
       </c>
       <c r="F205" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G205" t="s">
         <v>13</v>
@@ -8008,10 +8008,10 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B206" t="s">
-        <v>505</v>
+        <v>446</v>
       </c>
       <c r="C206" t="s">
         <v>19</v>
@@ -8020,10 +8020,10 @@
         <v>64</v>
       </c>
       <c r="E206" t="s">
-        <v>506</v>
+        <v>447</v>
       </c>
       <c r="F206" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G206" t="s">
         <v>13</v>
@@ -8031,22 +8031,22 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B207" t="s">
-        <v>507</v>
+        <v>448</v>
       </c>
       <c r="C207" t="s">
         <v>39</v>
       </c>
       <c r="D207" t="s">
-        <v>508</v>
+        <v>449</v>
       </c>
       <c r="E207" t="s">
-        <v>509</v>
+        <v>450</v>
       </c>
       <c r="F207" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G207" t="s">
         <v>13</v>
@@ -8054,22 +8054,22 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B208" t="s">
-        <v>510</v>
+        <v>451</v>
       </c>
       <c r="C208" t="s">
         <v>15</v>
       </c>
       <c r="D208" t="s">
-        <v>511</v>
+        <v>452</v>
       </c>
       <c r="E208" t="s">
-        <v>512</v>
+        <v>453</v>
       </c>
       <c r="F208" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G208" t="s">
         <v>13</v>
@@ -8077,22 +8077,22 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B209" t="s">
-        <v>513</v>
+        <v>454</v>
       </c>
       <c r="C209" t="s">
         <v>15</v>
       </c>
       <c r="D209" t="s">
-        <v>514</v>
+        <v>455</v>
       </c>
       <c r="E209" t="s">
-        <v>515</v>
+        <v>456</v>
       </c>
       <c r="F209" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G209" t="s">
         <v>13</v>
@@ -8100,10 +8100,10 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B210" t="s">
-        <v>516</v>
+        <v>457</v>
       </c>
       <c r="C210" t="s">
         <v>39</v>
@@ -8112,10 +8112,10 @@
         <v>162</v>
       </c>
       <c r="E210" t="s">
-        <v>517</v>
+        <v>458</v>
       </c>
       <c r="F210" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G210" t="s">
         <v>13</v>
@@ -8123,10 +8123,10 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B211" t="s">
-        <v>518</v>
+        <v>459</v>
       </c>
       <c r="C211" t="s">
         <v>39</v>
@@ -8135,10 +8135,10 @@
         <v>165</v>
       </c>
       <c r="E211" t="s">
-        <v>519</v>
+        <v>460</v>
       </c>
       <c r="F211" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G211" t="s">
         <v>13</v>
@@ -8146,22 +8146,22 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B212" t="s">
-        <v>520</v>
+        <v>461</v>
       </c>
       <c r="C212" t="s">
         <v>39</v>
       </c>
       <c r="D212" t="s">
-        <v>521</v>
+        <v>462</v>
       </c>
       <c r="E212" t="s">
-        <v>522</v>
+        <v>463</v>
       </c>
       <c r="F212" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G212" t="s">
         <v>13</v>
@@ -8169,22 +8169,22 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B213" t="s">
-        <v>523</v>
+        <v>464</v>
       </c>
       <c r="C213" t="s">
         <v>39</v>
       </c>
       <c r="D213" t="s">
-        <v>524</v>
+        <v>465</v>
       </c>
       <c r="E213" t="s">
-        <v>525</v>
+        <v>466</v>
       </c>
       <c r="F213" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G213" t="s">
         <v>13</v>
@@ -8192,22 +8192,22 @@
     </row>
     <row r="214" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>526</v>
+        <v>467</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>665</v>
+        <v>606</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>735</v>
+        <v>667</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>13</v>
@@ -8215,22 +8215,22 @@
     </row>
     <row r="215" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>527</v>
+        <v>468</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>667</v>
+        <v>608</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>736</v>
+        <v>668</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>13</v>
@@ -8238,22 +8238,22 @@
     </row>
     <row r="216" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>528</v>
+        <v>469</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>668</v>
+        <v>609</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>737</v>
+        <v>669</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>13</v>
@@ -8261,22 +8261,22 @@
     </row>
     <row r="217" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>529</v>
+        <v>470</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>669</v>
+        <v>610</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>738</v>
+        <v>670</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>13</v>
@@ -8284,22 +8284,22 @@
     </row>
     <row r="218" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>530</v>
+        <v>471</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>670</v>
+        <v>611</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>739</v>
+        <v>671</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>13</v>
@@ -8307,22 +8307,22 @@
     </row>
     <row r="219" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>531</v>
+        <v>472</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D219" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E219" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="E219" s="1" t="s">
-        <v>740</v>
-      </c>
       <c r="F219" s="1" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>13</v>
@@ -8330,22 +8330,22 @@
     </row>
     <row r="220" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>532</v>
+        <v>473</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>671</v>
+        <v>612</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>741</v>
+        <v>673</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>13</v>
@@ -8353,22 +8353,22 @@
     </row>
     <row r="221" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>533</v>
+        <v>474</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>673</v>
+        <v>614</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>742</v>
+        <v>674</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>13</v>
@@ -8376,22 +8376,22 @@
     </row>
     <row r="222" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>534</v>
+        <v>475</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>674</v>
+        <v>615</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>743</v>
+        <v>675</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>13</v>
@@ -8399,22 +8399,22 @@
     </row>
     <row r="223" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>535</v>
+        <v>476</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>675</v>
+        <v>616</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>744</v>
+        <v>676</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>13</v>
@@ -8422,22 +8422,22 @@
     </row>
     <row r="224" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>536</v>
+        <v>477</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>676</v>
+        <v>617</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>745</v>
+        <v>677</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>13</v>
@@ -8445,22 +8445,22 @@
     </row>
     <row r="225" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>537</v>
+        <v>478</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>677</v>
+        <v>618</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>746</v>
+        <v>678</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>13</v>
@@ -8468,22 +8468,22 @@
     </row>
     <row r="226" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>538</v>
+        <v>479</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>678</v>
+        <v>619</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>747</v>
+        <v>679</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>13</v>
@@ -8491,22 +8491,22 @@
     </row>
     <row r="227" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>539</v>
+        <v>480</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>679</v>
+        <v>620</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>748</v>
+        <v>680</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>13</v>
@@ -8514,22 +8514,22 @@
     </row>
     <row r="228" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>540</v>
+        <v>481</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>680</v>
+        <v>621</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>749</v>
+        <v>681</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>13</v>
@@ -8537,22 +8537,22 @@
     </row>
     <row r="229" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>541</v>
+        <v>482</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>681</v>
+        <v>622</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>750</v>
+        <v>682</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>13</v>
@@ -8560,22 +8560,22 @@
     </row>
     <row r="230" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>542</v>
+        <v>483</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>682</v>
+        <v>623</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>751</v>
+        <v>683</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>13</v>
@@ -8583,22 +8583,22 @@
     </row>
     <row r="231" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>543</v>
+        <v>484</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>683</v>
+        <v>624</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>752</v>
+        <v>684</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>13</v>
@@ -8606,22 +8606,22 @@
     </row>
     <row r="232" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>730</v>
+        <v>662</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>733</v>
+        <v>665</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>753</v>
+        <v>685</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>13</v>
@@ -8629,22 +8629,22 @@
     </row>
     <row r="233" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>731</v>
+        <v>663</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>732</v>
+        <v>664</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>734</v>
+        <v>666</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>754</v>
+        <v>686</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G233" s="1" t="s">
         <v>13</v>
@@ -8652,10 +8652,10 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>544</v>
+        <v>485</v>
       </c>
       <c r="B234" t="s">
-        <v>545</v>
+        <v>486</v>
       </c>
       <c r="C234" t="s">
         <v>15</v>
@@ -8664,21 +8664,21 @@
         <v>16</v>
       </c>
       <c r="E234" t="s">
-        <v>546</v>
+        <v>487</v>
       </c>
       <c r="F234" t="s">
-        <v>547</v>
+        <v>488</v>
       </c>
       <c r="G234" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>544</v>
+        <v>485</v>
       </c>
       <c r="B235" t="s">
-        <v>548</v>
+        <v>489</v>
       </c>
       <c r="C235" t="s">
         <v>15</v>
@@ -8687,21 +8687,21 @@
         <v>100</v>
       </c>
       <c r="E235" t="s">
-        <v>549</v>
+        <v>490</v>
       </c>
       <c r="F235" t="s">
-        <v>547</v>
+        <v>488</v>
       </c>
       <c r="G235" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>544</v>
+        <v>485</v>
       </c>
       <c r="B236" t="s">
-        <v>550</v>
+        <v>491</v>
       </c>
       <c r="C236" t="s">
         <v>15</v>
@@ -8710,67 +8710,67 @@
         <v>97</v>
       </c>
       <c r="E236" t="s">
-        <v>551</v>
+        <v>492</v>
       </c>
       <c r="F236" t="s">
-        <v>547</v>
+        <v>488</v>
       </c>
       <c r="G236" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>544</v>
+        <v>485</v>
       </c>
       <c r="B237" t="s">
-        <v>552</v>
+        <v>493</v>
       </c>
       <c r="C237" t="s">
         <v>15</v>
       </c>
       <c r="D237" t="s">
-        <v>553</v>
+        <v>494</v>
       </c>
       <c r="E237" t="s">
-        <v>554</v>
+        <v>495</v>
       </c>
       <c r="F237" t="s">
-        <v>547</v>
+        <v>488</v>
       </c>
       <c r="G237" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>544</v>
+        <v>485</v>
       </c>
       <c r="B238" t="s">
-        <v>555</v>
+        <v>496</v>
       </c>
       <c r="C238" t="s">
         <v>15</v>
       </c>
       <c r="D238" t="s">
-        <v>556</v>
+        <v>497</v>
       </c>
       <c r="E238" t="s">
-        <v>557</v>
+        <v>498</v>
       </c>
       <c r="F238" t="s">
-        <v>547</v>
+        <v>488</v>
       </c>
       <c r="G238" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>544</v>
+        <v>485</v>
       </c>
       <c r="B239" t="s">
-        <v>558</v>
+        <v>499</v>
       </c>
       <c r="C239" t="s">
         <v>19</v>
@@ -8779,44 +8779,44 @@
         <v>20</v>
       </c>
       <c r="E239" t="s">
-        <v>559</v>
+        <v>500</v>
       </c>
       <c r="F239" t="s">
-        <v>547</v>
+        <v>488</v>
       </c>
       <c r="G239" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>544</v>
+        <v>485</v>
       </c>
       <c r="B240" t="s">
-        <v>560</v>
+        <v>501</v>
       </c>
       <c r="C240" t="s">
         <v>19</v>
       </c>
       <c r="D240" t="s">
-        <v>561</v>
+        <v>502</v>
       </c>
       <c r="E240" t="s">
-        <v>562</v>
+        <v>503</v>
       </c>
       <c r="F240" t="s">
-        <v>547</v>
+        <v>488</v>
       </c>
       <c r="G240" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>544</v>
+        <v>485</v>
       </c>
       <c r="B241" t="s">
-        <v>563</v>
+        <v>504</v>
       </c>
       <c r="C241" t="s">
         <v>39</v>
@@ -8825,44 +8825,44 @@
         <v>43</v>
       </c>
       <c r="E241" t="s">
-        <v>564</v>
+        <v>505</v>
       </c>
       <c r="F241" t="s">
-        <v>547</v>
+        <v>488</v>
       </c>
       <c r="G241" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>544</v>
+        <v>485</v>
       </c>
       <c r="B242" t="s">
-        <v>565</v>
+        <v>506</v>
       </c>
       <c r="C242" t="s">
         <v>39</v>
       </c>
       <c r="D242" t="s">
-        <v>566</v>
+        <v>507</v>
       </c>
       <c r="E242" t="s">
-        <v>567</v>
+        <v>508</v>
       </c>
       <c r="F242" t="s">
-        <v>547</v>
+        <v>488</v>
       </c>
       <c r="G242" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>544</v>
+        <v>485</v>
       </c>
       <c r="B243" t="s">
-        <v>568</v>
+        <v>509</v>
       </c>
       <c r="C243" t="s">
         <v>31</v>
@@ -8871,67 +8871,67 @@
         <v>32</v>
       </c>
       <c r="E243" t="s">
-        <v>569</v>
+        <v>510</v>
       </c>
       <c r="F243" t="s">
-        <v>547</v>
+        <v>488</v>
       </c>
       <c r="G243" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>544</v>
+        <v>485</v>
       </c>
       <c r="B244" t="s">
-        <v>570</v>
+        <v>511</v>
       </c>
       <c r="C244" t="s">
         <v>31</v>
       </c>
       <c r="D244" t="s">
-        <v>571</v>
+        <v>512</v>
       </c>
       <c r="E244" t="s">
-        <v>572</v>
+        <v>513</v>
       </c>
       <c r="F244" t="s">
-        <v>547</v>
+        <v>488</v>
       </c>
       <c r="G244" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>544</v>
+        <v>485</v>
       </c>
       <c r="B245" t="s">
-        <v>573</v>
+        <v>514</v>
       </c>
       <c r="C245" t="s">
         <v>31</v>
       </c>
       <c r="D245" t="s">
-        <v>574</v>
+        <v>515</v>
       </c>
       <c r="E245" t="s">
-        <v>575</v>
+        <v>516</v>
       </c>
       <c r="F245" t="s">
-        <v>547</v>
+        <v>488</v>
       </c>
       <c r="G245" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>544</v>
+        <v>485</v>
       </c>
       <c r="B246" t="s">
-        <v>576</v>
+        <v>517</v>
       </c>
       <c r="C246" t="s">
         <v>103</v>
@@ -8940,21 +8940,21 @@
         <v>104</v>
       </c>
       <c r="E246" t="s">
-        <v>577</v>
+        <v>518</v>
       </c>
       <c r="F246" t="s">
-        <v>547</v>
+        <v>488</v>
       </c>
       <c r="G246" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>544</v>
+        <v>485</v>
       </c>
       <c r="B247" t="s">
-        <v>578</v>
+        <v>519</v>
       </c>
       <c r="C247" t="s">
         <v>103</v>
@@ -8963,21 +8963,21 @@
         <v>110</v>
       </c>
       <c r="E247" t="s">
-        <v>579</v>
+        <v>520</v>
       </c>
       <c r="F247" t="s">
-        <v>547</v>
+        <v>488</v>
       </c>
       <c r="G247" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>544</v>
+        <v>485</v>
       </c>
       <c r="B248" t="s">
-        <v>580</v>
+        <v>521</v>
       </c>
       <c r="C248" t="s">
         <v>103</v>
@@ -8986,343 +8986,343 @@
         <v>107</v>
       </c>
       <c r="E248" t="s">
-        <v>581</v>
+        <v>522</v>
       </c>
       <c r="F248" t="s">
-        <v>547</v>
+        <v>488</v>
       </c>
       <c r="G248" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>544</v>
+        <v>485</v>
       </c>
       <c r="B249" t="s">
-        <v>582</v>
+        <v>523</v>
       </c>
       <c r="C249" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D249" t="s">
-        <v>583</v>
+        <v>524</v>
       </c>
       <c r="E249" t="s">
-        <v>584</v>
+        <v>525</v>
       </c>
       <c r="F249" t="s">
-        <v>547</v>
+        <v>488</v>
       </c>
       <c r="G249" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>544</v>
+        <v>485</v>
       </c>
       <c r="B250" t="s">
-        <v>585</v>
+        <v>526</v>
       </c>
       <c r="C250" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D250" t="s">
-        <v>586</v>
+        <v>527</v>
       </c>
       <c r="E250" t="s">
-        <v>587</v>
+        <v>528</v>
       </c>
       <c r="F250" t="s">
-        <v>547</v>
+        <v>488</v>
       </c>
       <c r="G250" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="251" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>544</v>
+        <v>485</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>588</v>
+        <v>529</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>665</v>
+        <v>606</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>755</v>
+        <v>687</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>547</v>
+        <v>488</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="252" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>544</v>
+        <v>485</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>756</v>
+        <v>688</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>705</v>
+        <v>646</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>757</v>
+        <v>689</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>547</v>
+        <v>488</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>589</v>
+        <v>530</v>
       </c>
       <c r="B253" t="s">
-        <v>590</v>
+        <v>531</v>
       </c>
       <c r="C253" t="s">
         <v>103</v>
       </c>
       <c r="D253" t="s">
-        <v>591</v>
+        <v>532</v>
       </c>
       <c r="E253" t="s">
-        <v>592</v>
+        <v>533</v>
       </c>
       <c r="F253" t="s">
-        <v>593</v>
+        <v>534</v>
       </c>
       <c r="G253" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>589</v>
+        <v>530</v>
       </c>
       <c r="B254" t="s">
-        <v>595</v>
+        <v>536</v>
       </c>
       <c r="C254" t="s">
         <v>103</v>
       </c>
       <c r="D254" t="s">
-        <v>596</v>
+        <v>537</v>
       </c>
       <c r="E254" t="s">
-        <v>597</v>
+        <v>538</v>
       </c>
       <c r="F254" t="s">
-        <v>593</v>
+        <v>534</v>
       </c>
       <c r="G254" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>589</v>
+        <v>530</v>
       </c>
       <c r="B255" t="s">
-        <v>598</v>
+        <v>539</v>
       </c>
       <c r="C255" t="s">
         <v>19</v>
       </c>
       <c r="D255" t="s">
-        <v>599</v>
+        <v>540</v>
       </c>
       <c r="E255" t="s">
-        <v>600</v>
+        <v>541</v>
       </c>
       <c r="F255" t="s">
-        <v>593</v>
+        <v>534</v>
       </c>
       <c r="G255" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>589</v>
+        <v>530</v>
       </c>
       <c r="B256" t="s">
-        <v>601</v>
+        <v>542</v>
       </c>
       <c r="C256" t="s">
         <v>31</v>
       </c>
       <c r="D256" t="s">
-        <v>602</v>
+        <v>543</v>
       </c>
       <c r="E256" t="s">
-        <v>603</v>
+        <v>544</v>
       </c>
       <c r="F256" t="s">
-        <v>593</v>
+        <v>534</v>
       </c>
       <c r="G256" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>589</v>
+        <v>530</v>
       </c>
       <c r="B257" t="s">
-        <v>604</v>
+        <v>545</v>
       </c>
       <c r="C257" t="s">
-        <v>605</v>
+        <v>546</v>
       </c>
       <c r="D257" t="s">
-        <v>606</v>
+        <v>547</v>
       </c>
       <c r="E257" t="s">
-        <v>607</v>
+        <v>548</v>
       </c>
       <c r="F257" t="s">
-        <v>593</v>
+        <v>534</v>
       </c>
       <c r="G257" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>589</v>
+        <v>530</v>
       </c>
       <c r="B258" t="s">
-        <v>608</v>
+        <v>549</v>
       </c>
       <c r="C258" t="s">
         <v>19</v>
       </c>
       <c r="D258" t="s">
-        <v>609</v>
+        <v>550</v>
       </c>
       <c r="E258" t="s">
-        <v>610</v>
+        <v>551</v>
       </c>
       <c r="F258" t="s">
-        <v>593</v>
+        <v>534</v>
       </c>
       <c r="G258" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>589</v>
+        <v>530</v>
       </c>
       <c r="B259" t="s">
-        <v>611</v>
+        <v>552</v>
       </c>
       <c r="C259" t="s">
         <v>15</v>
       </c>
       <c r="D259" t="s">
-        <v>612</v>
+        <v>553</v>
       </c>
       <c r="E259" t="s">
-        <v>613</v>
+        <v>554</v>
       </c>
       <c r="F259" t="s">
-        <v>593</v>
+        <v>534</v>
       </c>
       <c r="G259" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>589</v>
+        <v>530</v>
       </c>
       <c r="B260" t="s">
-        <v>614</v>
+        <v>555</v>
       </c>
       <c r="C260" t="s">
         <v>31</v>
       </c>
       <c r="D260" t="s">
-        <v>615</v>
+        <v>556</v>
       </c>
       <c r="E260" t="s">
-        <v>616</v>
+        <v>557</v>
       </c>
       <c r="F260" t="s">
-        <v>593</v>
+        <v>534</v>
       </c>
       <c r="G260" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>589</v>
+        <v>530</v>
       </c>
       <c r="B261" t="s">
-        <v>617</v>
+        <v>558</v>
       </c>
       <c r="C261" t="s">
         <v>15</v>
       </c>
       <c r="D261" t="s">
-        <v>618</v>
+        <v>559</v>
       </c>
       <c r="E261" t="s">
-        <v>619</v>
+        <v>560</v>
       </c>
       <c r="F261" t="s">
-        <v>593</v>
+        <v>534</v>
       </c>
       <c r="G261" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>589</v>
+        <v>530</v>
       </c>
       <c r="B262" t="s">
-        <v>620</v>
+        <v>561</v>
       </c>
       <c r="C262" t="s">
         <v>43</v>
       </c>
       <c r="D262" t="s">
-        <v>621</v>
+        <v>562</v>
       </c>
       <c r="E262" t="s">
-        <v>622</v>
+        <v>563</v>
       </c>
       <c r="F262" t="s">
-        <v>593</v>
+        <v>534</v>
       </c>
       <c r="G262" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="B263" t="s">
-        <v>624</v>
+        <v>565</v>
       </c>
       <c r="C263" t="s">
         <v>23</v>
@@ -9331,565 +9331,565 @@
         <v>257</v>
       </c>
       <c r="E263" t="s">
-        <v>625</v>
+        <v>566</v>
       </c>
       <c r="F263" t="s">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="G263" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="B264" t="s">
-        <v>627</v>
+        <v>568</v>
       </c>
       <c r="C264" t="s">
         <v>23</v>
       </c>
       <c r="D264" t="s">
-        <v>628</v>
+        <v>569</v>
       </c>
       <c r="E264" t="s">
-        <v>629</v>
+        <v>570</v>
       </c>
       <c r="F264" t="s">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="G264" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="B265" t="s">
-        <v>630</v>
+        <v>571</v>
       </c>
       <c r="C265" t="s">
         <v>171</v>
       </c>
       <c r="D265" t="s">
-        <v>631</v>
+        <v>572</v>
       </c>
       <c r="E265" t="s">
-        <v>632</v>
+        <v>573</v>
       </c>
       <c r="F265" t="s">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="G265" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="B266" t="s">
-        <v>633</v>
+        <v>574</v>
       </c>
       <c r="C266" t="s">
         <v>31</v>
       </c>
       <c r="D266" t="s">
-        <v>634</v>
+        <v>575</v>
       </c>
       <c r="E266" t="s">
-        <v>635</v>
+        <v>576</v>
       </c>
       <c r="F266" t="s">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="G266" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="B267" t="s">
-        <v>636</v>
+        <v>577</v>
       </c>
       <c r="C267" t="s">
         <v>9</v>
       </c>
       <c r="D267" t="s">
-        <v>637</v>
+        <v>578</v>
       </c>
       <c r="E267" t="s">
-        <v>638</v>
+        <v>579</v>
       </c>
       <c r="F267" t="s">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="G267" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="B268" t="s">
-        <v>639</v>
+        <v>580</v>
       </c>
       <c r="C268" t="s">
         <v>9</v>
       </c>
       <c r="D268" t="s">
-        <v>640</v>
+        <v>581</v>
       </c>
       <c r="E268" t="s">
-        <v>641</v>
+        <v>582</v>
       </c>
       <c r="F268" t="s">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="G268" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="B269" t="s">
-        <v>642</v>
+        <v>583</v>
       </c>
       <c r="C269" t="s">
         <v>171</v>
       </c>
       <c r="D269" t="s">
-        <v>643</v>
+        <v>584</v>
       </c>
       <c r="E269" t="s">
-        <v>644</v>
+        <v>585</v>
       </c>
       <c r="F269" t="s">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="G269" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="B270" t="s">
-        <v>645</v>
+        <v>586</v>
       </c>
       <c r="C270" t="s">
         <v>171</v>
       </c>
       <c r="D270" t="s">
-        <v>646</v>
+        <v>587</v>
       </c>
       <c r="E270" t="s">
-        <v>647</v>
+        <v>588</v>
       </c>
       <c r="F270" t="s">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="G270" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="271" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>648</v>
+        <v>589</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>758</v>
+        <v>690</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>775</v>
+        <v>707</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="272" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>649</v>
+        <v>590</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>759</v>
+        <v>691</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>776</v>
+        <v>708</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="273" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>650</v>
+        <v>591</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>760</v>
+        <v>692</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>777</v>
+        <v>709</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="274" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>651</v>
+        <v>592</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>761</v>
+        <v>693</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>778</v>
+        <v>710</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="275" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>652</v>
+        <v>593</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>762</v>
+        <v>694</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>779</v>
+        <v>711</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="276" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>653</v>
+        <v>594</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>763</v>
+        <v>695</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>780</v>
+        <v>712</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="277" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>654</v>
+        <v>595</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>764</v>
+        <v>696</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>781</v>
+        <v>713</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="278" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>655</v>
+        <v>596</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>765</v>
+        <v>697</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>782</v>
+        <v>714</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="279" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>656</v>
+        <v>597</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>766</v>
+        <v>698</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>783</v>
+        <v>715</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="280" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>657</v>
+        <v>598</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>767</v>
+        <v>699</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>784</v>
+        <v>716</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="281" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>658</v>
+        <v>599</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>768</v>
+        <v>700</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>785</v>
+        <v>717</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="282" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>659</v>
+        <v>600</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>769</v>
+        <v>701</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>786</v>
+        <v>718</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="283" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>660</v>
+        <v>601</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>770</v>
+        <v>702</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>787</v>
+        <v>719</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="284" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>661</v>
+        <v>602</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>771</v>
+        <v>703</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>788</v>
+        <v>720</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="285" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>662</v>
+        <v>603</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>772</v>
+        <v>704</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>789</v>
+        <v>721</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="286" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>663</v>
+        <v>604</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>773</v>
+        <v>705</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>790</v>
+        <v>722</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
     <row r="287" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>664</v>
+        <v>605</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>774</v>
+        <v>706</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>791</v>
+        <v>723</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
